--- a/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_06.08.24_output.xlsx
+++ b/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_06.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pupse</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -498,18 +498,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>20.142</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19.978</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1639999999999979</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8099999999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -528,7 +536,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,16 +545,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>280.59</v>
+        <v>19.96</v>
       </c>
       <c r="H3" t="n">
-        <v>279.62</v>
+        <v>19.758</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9699999999999704</v>
+        <v>-0.2020000000000017</v>
       </c>
       <c r="J3" t="n">
-        <v>0.35</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -566,7 +574,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -575,16 +583,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>279.02</v>
+        <v>19.815</v>
       </c>
       <c r="H4" t="n">
-        <v>279.66</v>
+        <v>19.81</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6400000000000432</v>
+        <v>0.005000000000002558</v>
       </c>
       <c r="J4" t="n">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C5" t="b">
@@ -613,16 +621,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>279.8</v>
+        <v>59.81</v>
       </c>
       <c r="H5" t="n">
-        <v>279.27</v>
+        <v>59.68</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5300000000000296</v>
+        <v>0.1300000000000026</v>
       </c>
       <c r="J5" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6">
@@ -631,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -651,16 +659,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>278.69</v>
+        <v>59.51</v>
       </c>
       <c r="H6" t="n">
-        <v>277.37</v>
+        <v>59.37</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.319999999999993</v>
+        <v>-0.1400000000000006</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.47</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="7">
@@ -669,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -689,16 +697,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>278.26</v>
+        <v>59.7</v>
       </c>
       <c r="H7" t="n">
-        <v>278.81</v>
+        <v>59.61</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5500000000000114</v>
+        <v>0.09000000000000341</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
@@ -707,7 +715,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -718,7 +726,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -727,16 +735,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>278.51</v>
+        <v>1401</v>
       </c>
       <c r="H8" t="n">
-        <v>279.35</v>
+        <v>1387.4</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8400000000000318</v>
+        <v>13.59999999999991</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="9">
@@ -745,16 +753,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -763,16 +773,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>279.7</v>
+        <v>1382.8</v>
       </c>
       <c r="H9" t="n">
-        <v>279.69</v>
+        <v>1385</v>
       </c>
       <c r="I9" t="n">
-        <v>0.009999999999990905</v>
+        <v>2.200000000000045</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="10">
@@ -781,7 +791,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -792,7 +802,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -801,16 +811,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>129.29</v>
+        <v>1375</v>
       </c>
       <c r="H10" t="n">
-        <v>128.53</v>
+        <v>1363.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7599999999999909</v>
+        <v>-11.79999999999995</v>
       </c>
       <c r="J10" t="n">
-        <v>0.59</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="11">
@@ -819,7 +829,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -839,16 +849,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>128.57</v>
+        <v>11.81</v>
       </c>
       <c r="H11" t="n">
-        <v>128.95</v>
+        <v>11.84</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3799999999999955</v>
+        <v>0.02999999999999936</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12">
@@ -857,7 +867,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -877,16 +887,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>129.3</v>
+        <v>11.863</v>
       </c>
       <c r="H12" t="n">
-        <v>129.05</v>
+        <v>11.922</v>
       </c>
       <c r="I12" t="n">
-        <v>0.25</v>
+        <v>-0.05900000000000105</v>
       </c>
       <c r="J12" t="n">
-        <v>0.19</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13">
@@ -895,7 +905,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -915,16 +925,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>128.79</v>
+        <v>11.912</v>
       </c>
       <c r="H13" t="n">
-        <v>127.99</v>
+        <v>11.926</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.7999999999999972</v>
+        <v>0.01399999999999935</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.62</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="14">
@@ -933,7 +943,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -944,7 +954,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -953,16 +963,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>128.47</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>128.53</v>
+        <v>0.09542</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.06000000000000227</v>
+        <v>-0.0002799999999999886</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.05</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="15">
@@ -971,7 +981,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -982,7 +992,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -991,16 +1001,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>6447</v>
+        <v>129.29</v>
       </c>
       <c r="H15" t="n">
-        <v>6444</v>
+        <v>128.53</v>
       </c>
       <c r="I15" t="n">
-        <v>-3</v>
+        <v>0.7599999999999909</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.05</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="16">
@@ -1009,7 +1019,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -1029,16 +1039,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6433.5</v>
+        <v>128.57</v>
       </c>
       <c r="H16" t="n">
-        <v>6377</v>
+        <v>128.95</v>
       </c>
       <c r="I16" t="n">
-        <v>-56.5</v>
+        <v>0.3799999999999955</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.88</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
@@ -1047,7 +1057,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1067,16 +1077,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6389.5</v>
+        <v>129.3</v>
       </c>
       <c r="H17" t="n">
-        <v>6421.5</v>
+        <v>129.05</v>
       </c>
       <c r="I17" t="n">
-        <v>-32</v>
+        <v>0.25</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.5</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="18">
@@ -1085,16 +1095,18 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1103,16 +1115,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>6435.5</v>
+        <v>128.79</v>
       </c>
       <c r="H18" t="n">
-        <v>6448</v>
+        <v>127.99</v>
       </c>
       <c r="I18" t="n">
-        <v>-12.5</v>
+        <v>-0.7999999999999972</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.19</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="19">
@@ -1121,7 +1133,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1132,7 +1144,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1141,16 +1153,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>497.5</v>
+        <v>128.47</v>
       </c>
       <c r="H19" t="n">
-        <v>497.7</v>
+        <v>128.53</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1999999999999886</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="20">
@@ -1159,7 +1171,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1170,7 +1182,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1179,16 +1191,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>498.7</v>
+        <v>124.38</v>
       </c>
       <c r="H20" t="n">
-        <v>497.15</v>
+        <v>125.02</v>
       </c>
       <c r="I20" t="n">
-        <v>1.550000000000011</v>
+        <v>0.6400000000000006</v>
       </c>
       <c r="J20" t="n">
-        <v>0.31</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1209,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1208,7 +1220,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1217,16 +1229,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>495.5</v>
+        <v>125.16</v>
       </c>
       <c r="H21" t="n">
-        <v>493.2</v>
+        <v>124.98</v>
       </c>
       <c r="I21" t="n">
-        <v>-2.300000000000011</v>
+        <v>0.1799999999999926</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.46</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="22">
@@ -1235,7 +1247,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1246,7 +1258,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1255,16 +1267,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>493.8</v>
+        <v>124.8</v>
       </c>
       <c r="H22" t="n">
-        <v>494.15</v>
+        <v>124.8</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.3499999999999659</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.06999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1273,13 +1285,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>short</t>
@@ -1291,16 +1305,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>495.4</v>
+        <v>125.3</v>
       </c>
       <c r="H23" t="n">
-        <v>495.6</v>
+        <v>125.12</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2000000000000455</v>
+        <v>0.1799999999999926</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.04</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="24">
@@ -1309,7 +1323,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C24" t="b">
@@ -1329,16 +1343,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>225.1</v>
+        <v>6447</v>
       </c>
       <c r="H24" t="n">
-        <v>226.03</v>
+        <v>6444</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9300000000000068</v>
+        <v>-3</v>
       </c>
       <c r="J24" t="n">
-        <v>0.41</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="25">
@@ -1347,7 +1361,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1358,7 +1372,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1367,16 +1381,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>226.17</v>
+        <v>6433.5</v>
       </c>
       <c r="H25" t="n">
-        <v>226.48</v>
+        <v>6377</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.3100000000000023</v>
+        <v>-56.5</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.14</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="26">
@@ -1385,7 +1399,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -1396,7 +1410,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1405,16 +1419,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>225.18</v>
+        <v>6389.5</v>
       </c>
       <c r="H26" t="n">
-        <v>225.18</v>
+        <v>6421.5</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27">
@@ -1423,7 +1437,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C27" t="b">
@@ -1443,16 +1457,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>226.2</v>
+        <v>49.135</v>
       </c>
       <c r="H27" t="n">
-        <v>225.22</v>
+        <v>48.905</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9799999999999898</v>
+        <v>0.2299999999999969</v>
       </c>
       <c r="J27" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="28">
@@ -1461,7 +1475,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C28" t="b">
@@ -1481,16 +1495,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1006.4</v>
+        <v>48.905</v>
       </c>
       <c r="H28" t="n">
-        <v>1009.8</v>
+        <v>48.795</v>
       </c>
       <c r="I28" t="n">
-        <v>3.399999999999977</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="J28" t="n">
-        <v>0.34</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="29">
@@ -1499,7 +1513,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -1519,16 +1533,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1010.6</v>
+        <v>48.92</v>
       </c>
       <c r="H29" t="n">
-        <v>1007.8</v>
+        <v>48.905</v>
       </c>
       <c r="I29" t="n">
-        <v>2.800000000000068</v>
+        <v>0.01500000000000057</v>
       </c>
       <c r="J29" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="30">
@@ -1537,7 +1551,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C30" t="b">
@@ -1557,16 +1571,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1007</v>
+        <v>48.86</v>
       </c>
       <c r="H30" t="n">
-        <v>1005.2</v>
+        <v>48.985</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.799999999999955</v>
+        <v>0.125</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="31">
@@ -1575,7 +1589,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C31" t="b">
@@ -1595,16 +1609,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1001.4</v>
+        <v>225.1</v>
       </c>
       <c r="H31" t="n">
-        <v>1003.6</v>
+        <v>226.03</v>
       </c>
       <c r="I31" t="n">
-        <v>2.200000000000045</v>
+        <v>0.9300000000000068</v>
       </c>
       <c r="J31" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="32">
@@ -1613,7 +1627,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C32" t="b">
@@ -1633,16 +1647,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1007.2</v>
+        <v>226.17</v>
       </c>
       <c r="H32" t="n">
-        <v>1004.4</v>
+        <v>226.48</v>
       </c>
       <c r="I32" t="n">
-        <v>2.800000000000068</v>
+        <v>-0.3100000000000023</v>
       </c>
       <c r="J32" t="n">
-        <v>0.28</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="33">
@@ -1651,16 +1665,18 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1669,16 +1685,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1007.4</v>
+        <v>225.18</v>
       </c>
       <c r="H33" t="n">
-        <v>1008</v>
+        <v>225.18</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.6000000000000227</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1687,7 +1703,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C34" t="b">
@@ -1698,7 +1714,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1707,16 +1723,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>11.81</v>
+        <v>226.2</v>
       </c>
       <c r="H34" t="n">
-        <v>11.84</v>
+        <v>225.22</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02999999999999936</v>
+        <v>0.9799999999999898</v>
       </c>
       <c r="J34" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="35">
@@ -1725,7 +1741,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C35" t="b">
@@ -1736,7 +1752,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1745,16 +1761,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>11.863</v>
+        <v>152.79</v>
       </c>
       <c r="H35" t="n">
-        <v>11.922</v>
+        <v>152.34</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.05900000000000105</v>
+        <v>-0.4499999999999886</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.5</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="36">
@@ -1763,7 +1779,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C36" t="b">
@@ -1783,16 +1799,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>11.912</v>
+        <v>151.3</v>
       </c>
       <c r="H36" t="n">
-        <v>11.926</v>
+        <v>148.74</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01399999999999935</v>
+        <v>-2.560000000000002</v>
       </c>
       <c r="J36" t="n">
-        <v>0.12</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="37">
@@ -1801,7 +1817,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C37" t="b">
@@ -1812,7 +1828,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1821,16 +1837,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>124.38</v>
+        <v>149.48</v>
       </c>
       <c r="H37" t="n">
-        <v>125.02</v>
+        <v>148.45</v>
       </c>
       <c r="I37" t="n">
-        <v>0.6400000000000006</v>
+        <v>1.030000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>0.51</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1839,7 +1855,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C38" t="b">
@@ -1859,16 +1875,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>125.16</v>
+        <v>2932</v>
       </c>
       <c r="H38" t="n">
-        <v>124.98</v>
+        <v>2912.7</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1799999999999926</v>
+        <v>19.30000000000018</v>
       </c>
       <c r="J38" t="n">
-        <v>0.14</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="39">
@@ -1877,7 +1893,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C39" t="b">
@@ -1897,16 +1913,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>124.8</v>
+        <v>2906.6</v>
       </c>
       <c r="H39" t="n">
-        <v>124.8</v>
+        <v>2914.4</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.800000000000182</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="40">
@@ -1915,7 +1931,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C40" t="b">
@@ -1935,16 +1951,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>125.3</v>
+        <v>2919.2</v>
       </c>
       <c r="H40" t="n">
-        <v>125.12</v>
+        <v>2913.3</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1799999999999926</v>
+        <v>5.899999999999636</v>
       </c>
       <c r="J40" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="41">
@@ -1953,7 +1969,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C41" t="b">
@@ -1964,7 +1980,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1973,16 +1989,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>162.86</v>
+        <v>2901</v>
       </c>
       <c r="H41" t="n">
-        <v>160.4</v>
+        <v>2892.5</v>
       </c>
       <c r="I41" t="n">
-        <v>2.460000000000008</v>
+        <v>-8.5</v>
       </c>
       <c r="J41" t="n">
-        <v>1.51</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="42">
@@ -1991,7 +2007,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C42" t="b">
@@ -2002,7 +2018,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2011,16 +2027,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>159.5</v>
+        <v>2899.45</v>
       </c>
       <c r="H42" t="n">
-        <v>159.74</v>
+        <v>2901.55</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2400000000000091</v>
+        <v>-2.100000000000364</v>
       </c>
       <c r="J42" t="n">
-        <v>0.15</v>
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -2049,16 +2065,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>159.78</v>
+        <v>162.86</v>
       </c>
       <c r="H43" t="n">
-        <v>159.86</v>
+        <v>160.4</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.08000000000001251</v>
+        <v>2.460000000000008</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.05</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="44">
@@ -2087,16 +2103,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>159.02</v>
+        <v>159.5</v>
       </c>
       <c r="H44" t="n">
-        <v>159.14</v>
+        <v>159.74</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1199999999999761</v>
+        <v>0.2400000000000091</v>
       </c>
       <c r="J44" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="45">
@@ -2128,13 +2144,13 @@
         <v>159.78</v>
       </c>
       <c r="H45" t="n">
-        <v>159.06</v>
+        <v>159.86</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7199999999999989</v>
+        <v>-0.08000000000001251</v>
       </c>
       <c r="J45" t="n">
-        <v>0.45</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="46">
@@ -2143,7 +2159,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C46" t="b">
@@ -2154,7 +2170,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2163,16 +2179,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>49.135</v>
+        <v>159.02</v>
       </c>
       <c r="H46" t="n">
-        <v>48.905</v>
+        <v>159.14</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2299999999999969</v>
+        <v>0.1199999999999761</v>
       </c>
       <c r="J46" t="n">
-        <v>0.47</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="47">
@@ -2181,7 +2197,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C47" t="b">
@@ -2192,7 +2208,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2201,16 +2217,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>48.905</v>
+        <v>159.78</v>
       </c>
       <c r="H47" t="n">
-        <v>48.795</v>
+        <v>159.06</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.1099999999999994</v>
+        <v>0.7199999999999989</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.22</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="48">
@@ -2219,7 +2235,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C48" t="b">
@@ -2230,7 +2246,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2239,16 +2255,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>48.92</v>
+        <v>1006.4</v>
       </c>
       <c r="H48" t="n">
-        <v>48.905</v>
+        <v>1009.8</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01500000000000057</v>
+        <v>3.399999999999977</v>
       </c>
       <c r="J48" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="49">
@@ -2257,7 +2273,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C49" t="b">
@@ -2268,7 +2284,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2277,16 +2293,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>48.86</v>
+        <v>1010.6</v>
       </c>
       <c r="H49" t="n">
-        <v>48.985</v>
+        <v>1007.8</v>
       </c>
       <c r="I49" t="n">
-        <v>0.125</v>
+        <v>2.800000000000068</v>
       </c>
       <c r="J49" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="50">
@@ -2295,7 +2311,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C50" t="b">
@@ -2306,7 +2322,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2315,16 +2331,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1401</v>
+        <v>1007</v>
       </c>
       <c r="H50" t="n">
-        <v>1387.4</v>
+        <v>1005.2</v>
       </c>
       <c r="I50" t="n">
-        <v>13.59999999999991</v>
+        <v>-1.799999999999955</v>
       </c>
       <c r="J50" t="n">
-        <v>0.97</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="51">
@@ -2333,7 +2349,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C51" t="b">
@@ -2353,16 +2369,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1382.8</v>
+        <v>1001.4</v>
       </c>
       <c r="H51" t="n">
-        <v>1385</v>
+        <v>1003.6</v>
       </c>
       <c r="I51" t="n">
         <v>2.200000000000045</v>
       </c>
       <c r="J51" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="52">
@@ -2371,7 +2387,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C52" t="b">
@@ -2382,7 +2398,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2391,16 +2407,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1375</v>
+        <v>1007.2</v>
       </c>
       <c r="H52" t="n">
-        <v>1363.2</v>
+        <v>1004.4</v>
       </c>
       <c r="I52" t="n">
-        <v>-11.79999999999995</v>
+        <v>2.800000000000068</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.86</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="53">
@@ -2409,7 +2425,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C53" t="b">
@@ -2420,7 +2436,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2429,16 +2445,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>59.81</v>
+        <v>497.5</v>
       </c>
       <c r="H53" t="n">
-        <v>59.68</v>
+        <v>497.7</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1300000000000026</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="J53" t="n">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="54">
@@ -2447,7 +2463,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C54" t="b">
@@ -2458,7 +2474,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2467,16 +2483,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>59.51</v>
+        <v>498.7</v>
       </c>
       <c r="H54" t="n">
-        <v>59.37</v>
+        <v>497.15</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.1400000000000006</v>
+        <v>1.550000000000011</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.24</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="55">
@@ -2485,7 +2501,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C55" t="b">
@@ -2496,7 +2512,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2505,16 +2521,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>59.7</v>
+        <v>495.5</v>
       </c>
       <c r="H55" t="n">
-        <v>59.61</v>
+        <v>493.2</v>
       </c>
       <c r="I55" t="n">
-        <v>0.09000000000000341</v>
+        <v>-2.300000000000011</v>
       </c>
       <c r="J55" t="n">
-        <v>0.15</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="56">
@@ -2523,13 +2539,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>short</t>
@@ -2541,16 +2559,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>59.81</v>
+        <v>493.8</v>
       </c>
       <c r="H56" t="n">
-        <v>60.26</v>
+        <v>494.15</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.4499999999999957</v>
+        <v>-0.3499999999999659</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.75</v>
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="57">
@@ -2559,7 +2577,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C57" t="b">
@@ -2579,16 +2597,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>97.34</v>
+        <v>280.59</v>
       </c>
       <c r="H57" t="n">
-        <v>96.79000000000001</v>
+        <v>279.62</v>
       </c>
       <c r="I57" t="n">
-        <v>0.5499999999999972</v>
+        <v>0.9699999999999704</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="58">
@@ -2597,7 +2615,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C58" t="b">
@@ -2617,16 +2635,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>96.48</v>
+        <v>279.02</v>
       </c>
       <c r="H58" t="n">
-        <v>96.64</v>
+        <v>279.66</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1599999999999966</v>
+        <v>0.6400000000000432</v>
       </c>
       <c r="J58" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="59">
@@ -2635,7 +2653,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C59" t="b">
@@ -2655,13 +2673,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>96.84</v>
+        <v>279.8</v>
       </c>
       <c r="H59" t="n">
-        <v>96.66</v>
+        <v>279.27</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1800000000000068</v>
+        <v>0.5300000000000296</v>
       </c>
       <c r="J59" t="n">
         <v>0.19</v>
@@ -2673,7 +2691,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C60" t="b">
@@ -2693,16 +2711,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>96.22</v>
+        <v>278.69</v>
       </c>
       <c r="H60" t="n">
-        <v>95.83</v>
+        <v>277.37</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.3900000000000006</v>
+        <v>-1.319999999999993</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.41</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="61">
@@ -2711,7 +2729,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C61" t="b">
@@ -2731,16 +2749,16 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>96.26000000000001</v>
+        <v>278.26</v>
       </c>
       <c r="H61" t="n">
-        <v>95.95999999999999</v>
+        <v>278.81</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3000000000000114</v>
+        <v>-0.5500000000000114</v>
       </c>
       <c r="J61" t="n">
-        <v>0.31</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="62">
@@ -2749,7 +2767,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C62" t="b">
@@ -2769,16 +2787,16 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>95.95</v>
+        <v>278.51</v>
       </c>
       <c r="H62" t="n">
-        <v>96.2</v>
+        <v>279.35</v>
       </c>
       <c r="I62" t="n">
-        <v>0.25</v>
+        <v>0.8400000000000318</v>
       </c>
       <c r="J62" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="63">
@@ -2825,7 +2843,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C64" t="b">
@@ -2845,16 +2863,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>144.2</v>
+        <v>670.4</v>
       </c>
       <c r="H64" t="n">
-        <v>143.76</v>
+        <v>668.1</v>
       </c>
       <c r="I64" t="n">
-        <v>0.4399999999999977</v>
+        <v>2.299999999999955</v>
       </c>
       <c r="J64" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="65">
@@ -2863,7 +2881,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C65" t="b">
@@ -2883,16 +2901,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>143.32</v>
+        <v>666.35</v>
       </c>
       <c r="H65" t="n">
-        <v>144.1</v>
+        <v>664.1</v>
       </c>
       <c r="I65" t="n">
-        <v>0.7800000000000011</v>
+        <v>-2.25</v>
       </c>
       <c r="J65" t="n">
-        <v>0.54</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="66">
@@ -2912,7 +2930,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2921,16 +2939,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>143.04</v>
+        <v>144.2</v>
       </c>
       <c r="H66" t="n">
-        <v>143.18</v>
+        <v>143.76</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1400000000000148</v>
+        <v>0.4399999999999977</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="67">
@@ -2939,7 +2957,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C67" t="b">
@@ -2950,7 +2968,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2959,16 +2977,16 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>20.142</v>
+        <v>143.32</v>
       </c>
       <c r="H67" t="n">
-        <v>19.978</v>
+        <v>144.1</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1639999999999979</v>
+        <v>0.7800000000000011</v>
       </c>
       <c r="J67" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="68">
@@ -2977,7 +2995,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C68" t="b">
@@ -2997,16 +3015,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>19.96</v>
+        <v>143.04</v>
       </c>
       <c r="H68" t="n">
-        <v>19.758</v>
+        <v>143.18</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.2020000000000017</v>
+        <v>0.1400000000000148</v>
       </c>
       <c r="J68" t="n">
-        <v>-1.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="69">
@@ -3015,7 +3033,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C69" t="b">
@@ -3035,16 +3053,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>19.815</v>
+        <v>97.34</v>
       </c>
       <c r="H69" t="n">
-        <v>19.81</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>0.005000000000002558</v>
+        <v>0.5499999999999972</v>
       </c>
       <c r="J69" t="n">
-        <v>0.03</v>
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="70">
@@ -3053,7 +3071,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C70" t="b">
@@ -3064,7 +3082,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3073,16 +3091,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>670.4</v>
+        <v>96.48</v>
       </c>
       <c r="H70" t="n">
-        <v>668.1</v>
+        <v>96.64</v>
       </c>
       <c r="I70" t="n">
-        <v>2.299999999999955</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="J70" t="n">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="71">
@@ -3091,7 +3109,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C71" t="b">
@@ -3102,7 +3120,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3111,16 +3129,16 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>666.35</v>
+        <v>96.84</v>
       </c>
       <c r="H71" t="n">
-        <v>664.1</v>
+        <v>96.66</v>
       </c>
       <c r="I71" t="n">
-        <v>-2.25</v>
+        <v>0.1800000000000068</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.34</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="72">
@@ -3129,16 +3147,18 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3147,16 +3167,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>669.25</v>
+        <v>96.22</v>
       </c>
       <c r="H72" t="n">
-        <v>670.5</v>
+        <v>95.83</v>
       </c>
       <c r="I72" t="n">
-        <v>-1.25</v>
+        <v>-0.3900000000000006</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.19</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="73">
@@ -3165,7 +3185,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C73" t="b">
@@ -3176,7 +3196,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3185,16 +3205,16 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>152.79</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="H73" t="n">
-        <v>152.34</v>
+        <v>95.95999999999999</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.4499999999999886</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.29</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="74">
@@ -3203,7 +3223,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C74" t="b">
@@ -3223,16 +3243,16 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>151.3</v>
+        <v>95.95</v>
       </c>
       <c r="H74" t="n">
-        <v>148.74</v>
+        <v>96.2</v>
       </c>
       <c r="I74" t="n">
-        <v>-2.560000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="J74" t="n">
-        <v>-1.69</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="75">
@@ -3241,15 +3261,13 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
-      <c r="D75" t="b">
-        <v>1</v>
-      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
           <t>short</t>
@@ -3261,16 +3279,16 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>149.48</v>
+        <v>59.81</v>
       </c>
       <c r="H75" t="n">
-        <v>148.45</v>
+        <v>60.26</v>
       </c>
       <c r="I75" t="n">
-        <v>1.030000000000001</v>
+        <v>-0.4499999999999957</v>
       </c>
       <c r="J75" t="n">
-        <v>0.6899999999999999</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="76">
@@ -3279,7 +3297,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C76" t="b">
@@ -3297,16 +3315,16 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>149.03</v>
+        <v>6435.5</v>
       </c>
       <c r="H76" t="n">
-        <v>149.36</v>
+        <v>6448</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.3300000000000125</v>
+        <v>-12.5</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.22</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="77">
@@ -3315,18 +3333,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
-      <c r="D77" t="b">
-        <v>1</v>
-      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3335,16 +3351,16 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.09570000000000001</v>
+        <v>149.03</v>
       </c>
       <c r="H77" t="n">
-        <v>0.09542</v>
+        <v>149.36</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.0002800000000000025</v>
+        <v>-0.3300000000000125</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.29</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="78">
@@ -3353,15 +3369,13 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
-      <c r="D78" t="b">
-        <v>1</v>
-      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
           <t>short</t>
@@ -3373,16 +3387,16 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2932</v>
+        <v>1007.4</v>
       </c>
       <c r="H78" t="n">
-        <v>2912.7</v>
+        <v>1008</v>
       </c>
       <c r="I78" t="n">
-        <v>19.30000000000018</v>
+        <v>-0.6000000000000227</v>
       </c>
       <c r="J78" t="n">
-        <v>0.66</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="79">
@@ -3391,18 +3405,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
-      <c r="D79" t="b">
-        <v>1</v>
-      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3411,16 +3423,16 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2906.6</v>
+        <v>495.4</v>
       </c>
       <c r="H79" t="n">
-        <v>2914.4</v>
+        <v>495.6</v>
       </c>
       <c r="I79" t="n">
-        <v>7.800000000000182</v>
+        <v>-0.2000000000000455</v>
       </c>
       <c r="J79" t="n">
-        <v>0.27</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="80">
@@ -3429,15 +3441,13 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C80" t="b">
         <v>1</v>
       </c>
-      <c r="D80" t="b">
-        <v>1</v>
-      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
           <t>short</t>
@@ -3449,16 +3459,16 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2919.2</v>
+        <v>279.7</v>
       </c>
       <c r="H80" t="n">
-        <v>2913.3</v>
+        <v>279.69</v>
       </c>
       <c r="I80" t="n">
-        <v>5.899999999999636</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="J80" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3467,18 +3477,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
-      <c r="D81" t="b">
-        <v>1</v>
-      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3487,54 +3495,16 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2901</v>
+        <v>669.25</v>
       </c>
       <c r="H81" t="n">
-        <v>2892.5</v>
+        <v>670.5</v>
       </c>
       <c r="I81" t="n">
-        <v>-8.5</v>
+        <v>-1.25</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C82" t="b">
-        <v>1</v>
-      </c>
-      <c r="D82" t="b">
-        <v>1</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>2899.45</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2901.55</v>
-      </c>
-      <c r="I82" t="n">
-        <v>-2.100000000000364</v>
-      </c>
-      <c r="J82" t="n">
-        <v>-0.06999999999999999</v>
+        <v>-0.19</v>
       </c>
     </row>
   </sheetData>
@@ -3548,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3657,45 +3627,45 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5299999999999869</v>
+        <v>-1.100000000000023</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1059999999999974</v>
+        <v>-0.2200000000000046</v>
       </c>
       <c r="E5" t="n">
-        <v>0.41</v>
+        <v>-0.22</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.39999999999964</v>
+        <v>0.5299999999999869</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>4.479999999999928</v>
+        <v>0.1059999999999974</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7700000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="F6" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -3723,89 +3693,89 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.100000000000023</v>
+        <v>22.39999999999964</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2200000000000046</v>
+        <v>4.479999999999928</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.22</v>
+        <v>0.7700000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.310000000000002</v>
+        <v>1.599999999999994</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5775000000000006</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.51</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.38</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999999999999858</v>
+        <v>-0.3699999999999903</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2499999999999964</v>
+        <v>-0.09249999999999758</v>
       </c>
       <c r="E10" t="n">
-        <v>0.79</v>
+        <v>-0.62</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-104</v>
+        <v>-2.310000000000002</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-26</v>
+        <v>-0.5775000000000006</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.62</v>
+        <v>-1.51</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.4</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="12">
@@ -3833,108 +3803,108 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.599999999999994</v>
+        <v>-104</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3999999999999986</v>
+        <v>-26</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7000000000000001</v>
+        <v>-1.62</v>
       </c>
       <c r="F13" t="n">
-        <v>0.18</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.3699999999999903</v>
+        <v>0.9999999999999858</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.09249999999999758</v>
+        <v>0.2499999999999964</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.62</v>
+        <v>0.79</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.16</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.360000000000014</v>
+        <v>-0.01500000000000234</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4533333333333379</v>
+        <v>-0.005000000000000782</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9500000000000001</v>
+        <v>-0.13</v>
       </c>
       <c r="F15" t="n">
-        <v>0.32</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.200000000000045</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4000000000000152</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.19</v>
+        <v>0.27</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.03300000000000125</v>
+        <v>-1.200000000000045</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.01100000000000042</v>
+        <v>-0.4000000000000152</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1700000000000001</v>
+        <v>-0.19</v>
       </c>
       <c r="F17" t="n">
         <v>-0.06</v>
@@ -3943,108 +3913,90 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01500000000000234</v>
+        <v>1.360000000000014</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.005000000000000782</v>
+        <v>0.4533333333333379</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.13</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>-0.03300000000000125</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>1.333333333333333</v>
+        <v>-0.01100000000000042</v>
       </c>
       <c r="E19" t="n">
-        <v>0.27</v>
+        <v>-0.1700000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.07999999999999829</v>
+        <v>-0.0002799999999999886</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.07999999999999829</v>
+        <v>-0.0002799999999999886</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.14</v>
+        <v>-0.29</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.14</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0002800000000000025</v>
+        <v>-0.07999999999999829</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0002800000000000025</v>
+        <v>-0.07999999999999829</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.29</v>
+        <v>-0.14</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>pupse</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
+        <v>-0.14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
